--- a/data/trans_camb/P23_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_4_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 2,43</t>
+          <t>-3,44; 2,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 4,98</t>
+          <t>-2,62; 3,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,59</t>
+          <t>-1,31; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -1,39</t>
+          <t>-1,58; 5,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,68</t>
+          <t>-1,02; 5,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,03</t>
+          <t>-5,6; -1,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,37</t>
+          <t>-2,91; 1,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,08</t>
+          <t>-2,73; 2,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,54</t>
+          <t>-1,53; 3,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 1,92</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; -0,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 1,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 2,97</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 3,32</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 2,5</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,32%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-58,83%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,29%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>-58,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-39,19%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>-1,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>14,89%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-9,75%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-39,97%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,55%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>23,7%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 76,33</t>
+          <t>-55,98; 71,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 149,89</t>
+          <t>-45,68; 103,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 146,96</t>
+          <t>-22,58; 135,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,75; -28,77</t>
+          <t>-22,15; 110,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 36,97</t>
+          <t>-14,81; 105,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 94,29</t>
+          <t>-76,1; -32,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,85; -4,27</t>
+          <t>-40,45; 37,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 48,21</t>
+          <t>-39,4; 59,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 85,62</t>
+          <t>-21,87; 72,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-35,43; 32,28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-61,36; -7,83</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-35,63; 32,23</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-17,87; 65,79</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 68,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-17,92; 41,11</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,75</t>
+          <t>-1,79; 3,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,89</t>
+          <t>-2,86; 1,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 9,68</t>
+          <t>-2,0; 4,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -1,1</t>
+          <t>-0,59; 9,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 0,26</t>
+          <t>-4,98; 5,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,38</t>
+          <t>-7,79; -1,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,19</t>
+          <t>-6,38; 0,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,5</t>
+          <t>-5,26; 2,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 6,19</t>
+          <t>-1,59; 6,98</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 4,62</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 0,64</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 0,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 2,31</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 6,65</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 3,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,88%</t>
+          <t>-11,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>124,3%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-56,28%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-35,54%</t>
+          <t>-0,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>-57,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-29,85%</t>
+          <t>-36,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-26,59%</t>
+          <t>-19,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>36,78%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-3,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-29,8%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-27,88%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-4,43%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>58,42%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 135,67</t>
+          <t>-37,58; 161,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,06; 81,6</t>
+          <t>-56,32; 76,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 341,56</t>
+          <t>-46,25; 167,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,92; -17,5</t>
+          <t>-25,33; 282,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,03; 10,32</t>
+          <t>-45,34; 92,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 113,77</t>
+          <t>-76,47; -24,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,88; 6,6</t>
+          <t>-65,4; 5,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 11,25</t>
+          <t>-55,5; 43,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 140,72</t>
+          <t>-26,6; 166,82</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-52,24; 78,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-53,64; 19,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-54,9; 9,51</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-42,42; 53,26</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 161,33</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-41,46; 53,73</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,56</t>
+          <t>-3,87; 5,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 1,53</t>
+          <t>-7,04; 1,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-3,18; 9,55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 4,52</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-3,66; 5,31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 4,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 3,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 3,93</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 1,99</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 4,32</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 1,79</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 4,75</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-53,58%</t>
+          <t>-53,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>56,53%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,73%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-23,3%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>15,24%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-20,22%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-20,79%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,37; 314,77</t>
+          <t>-67,24; 309,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,96</t>
+          <t>-100,0; 128,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-54,43; 493,47</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-68,02; 253,17</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,03; 398,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-67,25; 313,9</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-65,69; 313,74</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-48,96; 163,1</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-70,11; 83,88</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-49,55; 164,16</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-71,28; 79,01</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-49,28; 182,82</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1285,42 +1693,72 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>-3,21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>1,46</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,15</t>
+          <t>-1,57; 2,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,06</t>
+          <t>-2,15; 1,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,2</t>
+          <t>-0,48; 3,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -1,75</t>
+          <t>-0,02; 5,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,31</t>
+          <t>-1,33; 4,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,64</t>
+          <t>-4,97; -1,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; -0,19</t>
+          <t>-3,2; 0,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,63</t>
+          <t>-2,73; 1,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,79</t>
+          <t>-0,35; 3,53</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 1,85</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; -0,25</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 0,7</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 2,01</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 4,04</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 1,99</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>-11,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-52,65%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>-52,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-30,45%</t>
+          <t>-19,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-11,3%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-8,34%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-30,38%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-16,51%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>37,8%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 66,47</t>
+          <t>-30,75; 61,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 60,69</t>
+          <t>-41,62; 45,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,76; 147,22</t>
+          <t>-10,39; 104,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,69; -32,55</t>
+          <t>-3,85; 118,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 6,7</t>
+          <t>-17,08; 65,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 69,18</t>
+          <t>-67,05; -31,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -4,54</t>
+          <t>-42,24; 10,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 13,59</t>
+          <t>-37,41; 22,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,65; 82,99</t>
+          <t>-6,2; 79,57</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-31,25; 29,5</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-46,73; -5,09</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; 16,43</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-19,13; 43,55</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 82,7</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; 30,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
